--- a/实验报告/02 测试用例/目标检测-蔡兆炫/目标检测功能.xlsx
+++ b/实验报告/02 测试用例/目标检测-蔡兆炫/目标检测功能.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\User\Documents\Study\University\20252026a\软件测试课程设计\github\实验报告\02 测试用例\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\User\Documents\Study\University\20252026a\软件测试课程设计\github\实验报告\02 测试用例\目标检测-蔡兆炫\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2897F947-4793-46F6-8888-5FBAD6182127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{704032D4-51EF-44D4-9675-657C30CD6B06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="3" xr2:uid="{46A138A7-270B-46AE-A94C-B74E579437DD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{46A138A7-270B-46AE-A94C-B74E579437DD}"/>
   </bookViews>
   <sheets>
     <sheet name="功能测试" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="82">
   <si>
     <t>软件测试用例</t>
   </si>
@@ -255,13 +255,88 @@
   <si>
     <t>CL-MBJC-401</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证jpg格式图像是否可测量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证bmp格式图像是否可测量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证tif格式图像是否可测量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证png格式图像是否可测量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证gif格式图像是否可测量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统启动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.打开待测试的图像；2.点击手动标定；3.根据三角板刻度从0到10cm划线；4.输入实际距离100；5.点击计算比例尺；6.保存比例尺；7.点击检测图像</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测量1.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测量1.bmp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测量1.tiff</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测量1.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测量1.gif</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统能够正确识别并检测图像</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法打开bmp格式图像</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击检测图像后，先提示参数无效，后出现程序异常</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CL-MBJC-104</t>
+  </si>
+  <si>
+    <t>CL-MBJC-105</t>
+  </si>
+  <si>
+    <t>CL-MBJC-106</t>
+  </si>
+  <si>
+    <t>CL-MBJC-107</t>
+  </si>
+  <si>
+    <t>CL-MBJC-108</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -298,6 +373,14 @@
     <font>
       <sz val="14"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -393,10 +476,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -422,12 +506,18 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -461,12 +551,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -759,8 +853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C5647AE-CB45-4678-96AA-4E172626ADC2}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -775,26 +869,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
     </row>
     <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="17"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="19"/>
       <c r="F3" s="2" t="s">
         <v>2</v>
       </c>
@@ -806,12 +900,12 @@
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="17"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="19"/>
       <c r="F4" s="2" t="s">
         <v>5</v>
       </c>
@@ -823,12 +917,12 @@
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="17"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="19"/>
       <c r="F5" s="2" t="s">
         <v>8</v>
       </c>
@@ -840,9 +934,9 @@
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="20"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="22"/>
       <c r="E6" s="5"/>
       <c r="F6" s="2" t="s">
         <v>10</v>
@@ -876,19 +970,19 @@
       <c r="A8" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="10" t="s">
         <v>21</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="9" t="s">
         <v>44</v>
       </c>
     </row>
@@ -896,15 +990,15 @@
       <c r="A9" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="9" t="s">
+      <c r="B9" s="14"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="11" t="s">
         <v>23</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="9" t="s">
         <v>29</v>
       </c>
     </row>
@@ -912,17 +1006,17 @@
       <c r="A10" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="9" t="s">
+      <c r="D10" s="12"/>
+      <c r="E10" s="11" t="s">
         <v>22</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="9" t="s">
         <v>31</v>
       </c>
     </row>
@@ -930,49 +1024,137 @@
       <c r="A11" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="9" t="s">
+      <c r="B11" s="14"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="11" t="s">
         <v>24</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="8" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="1:7" s="8" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-    </row>
-    <row r="14" spans="1:7" s="8" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-    </row>
-    <row r="15" spans="1:7" s="8" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-    </row>
-    <row r="16" spans="1:7" s="8" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
+    <row r="12" spans="1:7" s="8" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="8" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="8" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="12"/>
+      <c r="G14" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="8" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F15" s="12"/>
+      <c r="G15" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="8" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" s="12"/>
+      <c r="G16" s="9" t="s">
+        <v>76</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
+  <mergeCells count="11">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B6:D6"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="F12:F16"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
     <mergeCell ref="D8:D11"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E8" r:id="rId1" xr:uid="{8AE92A8A-E3F0-4D6B-8C32-E00A3B38AB59}"/>
+    <hyperlink ref="E9" r:id="rId2" xr:uid="{B1A0B5ED-48F8-4A42-8E69-3574A0860E88}"/>
+    <hyperlink ref="E10" r:id="rId3" xr:uid="{DE92F181-6228-42E7-BFEB-AC0507D0D9B3}"/>
+    <hyperlink ref="E11" r:id="rId4" xr:uid="{5778CE54-2F69-4C58-8E81-C91260488EF8}"/>
+    <hyperlink ref="E12" r:id="rId5" xr:uid="{710991F5-4A00-4DDA-B5AD-49598E6D6F9A}"/>
+    <hyperlink ref="E13" r:id="rId6" xr:uid="{A96C299C-F2CB-4B2A-9D54-8212D50458B1}"/>
+    <hyperlink ref="E14" r:id="rId7" xr:uid="{B883FBE4-5DE7-470B-B766-684F864155D3}"/>
+    <hyperlink ref="E15" r:id="rId8" xr:uid="{C3A17E21-2D3C-47F3-9CE0-503F082AA5BE}"/>
+    <hyperlink ref="E16" r:id="rId9" xr:uid="{6EEF6ADF-66E3-4A2E-ABC5-C95794656575}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId10"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -997,15 +1179,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D2" s="1"/>
@@ -1015,12 +1197,12 @@
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="17"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="19"/>
       <c r="F3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1032,12 +1214,12 @@
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="17"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="19"/>
       <c r="F4" s="2" t="s">
         <v>5</v>
       </c>
@@ -1049,12 +1231,12 @@
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="17"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="19"/>
       <c r="F5" s="2" t="s">
         <v>8</v>
       </c>
@@ -1066,9 +1248,9 @@
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="20"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="22"/>
       <c r="E6" s="5"/>
       <c r="F6" s="2" t="s">
         <v>10</v>
@@ -1105,10 +1287,10 @@
       <c r="B8" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="23" t="s">
         <v>32</v>
       </c>
       <c r="E8" s="8" t="s">
@@ -1117,7 +1299,7 @@
       <c r="F8" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="9" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1128,15 +1310,15 @@
       <c r="B9" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="12"/>
       <c r="E9" s="8" t="s">
         <v>34</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="9" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1172,6 +1354,9 @@
     <mergeCell ref="B6:D6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C8:C9" r:id="rId1" display="使用图像“测量2.jpg”" xr:uid="{4F5A8F0E-46E8-4398-9CD8-03F8DA73DD6E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1196,15 +1381,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D2" s="1"/>
@@ -1214,12 +1399,12 @@
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="17"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="19"/>
       <c r="F3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1231,12 +1416,12 @@
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="17"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="19"/>
       <c r="F4" s="2" t="s">
         <v>5</v>
       </c>
@@ -1248,12 +1433,12 @@
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="17"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="19"/>
       <c r="F5" s="2" t="s">
         <v>8</v>
       </c>
@@ -1265,9 +1450,9 @@
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="20"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="22"/>
       <c r="E6" s="5"/>
       <c r="F6" s="2" t="s">
         <v>10</v>
@@ -1314,7 +1499,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54989EE0-8512-4F10-A7F6-B2C943D6F69F}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8:D9"/>
     </sheetView>
   </sheetViews>
@@ -1330,15 +1515,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="D2" s="1"/>
@@ -1348,12 +1533,12 @@
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="17"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="19"/>
       <c r="F3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1365,12 +1550,12 @@
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="17"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="19"/>
       <c r="F4" s="2" t="s">
         <v>5</v>
       </c>
@@ -1382,12 +1567,12 @@
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="17"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="19"/>
       <c r="F5" s="2" t="s">
         <v>8</v>
       </c>
@@ -1399,9 +1584,9 @@
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="20"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="22"/>
       <c r="E6" s="5"/>
       <c r="F6" s="2" t="s">
         <v>10</v>
@@ -1438,10 +1623,10 @@
       <c r="B8" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="23" t="s">
         <v>48</v>
       </c>
       <c r="F8" s="8" t="s">
@@ -1458,12 +1643,12 @@
       <c r="B9" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
       <c r="F9" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="9" t="s">
         <v>52</v>
       </c>
     </row>
